--- a/TP2/tabla_adulto_equiv.xlsx
+++ b/TP2/tabla_adulto_equiv.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pupih\Desktop\EPH_usu_1_Trim_2019_xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\Facultad\Big Data y Machine Learning\TPs\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E962F3C-29E4-4745-A82B-33515FD15C1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC51DFB-5F88-4592-8FA5-25DF5D7C001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de adulo equivalente" sheetId="7" r:id="rId1"/>
+    <sheet name="Tabla de trabajo" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Edad</t>
   </si>
@@ -146,12 +152,18 @@
   <si>
     <t>Hogar 3: de cinco integrantes, constituido por una pareja de un varón y una mujer, ambos de 30 años, y tres hijos de 5, 3 y 1 año. En total, el hogar suma 3,25 adultos equivalentes</t>
   </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Varón</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +235,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -301,7 +321,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,7 +332,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,6 +340,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -339,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,9 +417,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,26 +452,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,26 +487,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -658,18 +662,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,10 +688,10 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -698,12 +702,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -802,7 +806,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -945,7 +949,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="14.55" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
@@ -956,7 +960,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" ht="14.55" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>26</v>
@@ -1079,4 +1083,1106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAB5C58-5C02-4C63-BF9B-7D89EBE4D3CF}">
+  <dimension ref="A1:C78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22">
+        <f>+'Tabla de adulo equivalente'!B6</f>
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="22">
+        <f>+'Tabla de adulo equivalente'!C6</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22">
+        <f>+'Tabla de adulo equivalente'!B7</f>
+        <v>0.37</v>
+      </c>
+      <c r="C3" s="22">
+        <f>+'Tabla de adulo equivalente'!C7</f>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <f>+A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
+        <f>+'Tabla de adulo equivalente'!B8</f>
+        <v>0.46</v>
+      </c>
+      <c r="C4" s="22">
+        <f>+'Tabla de adulo equivalente'!C8</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <f t="shared" ref="A5:A68" si="0">+A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="22">
+        <f>+'Tabla de adulo equivalente'!B9</f>
+        <v>0.51</v>
+      </c>
+      <c r="C5" s="22">
+        <f>+'Tabla de adulo equivalente'!C9</f>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="22">
+        <f>+'Tabla de adulo equivalente'!B10</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6" s="22">
+        <f>+'Tabla de adulo equivalente'!C10</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="22">
+        <f>+'Tabla de adulo equivalente'!B11</f>
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="22">
+        <f>+'Tabla de adulo equivalente'!C11</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="22">
+        <f>+'Tabla de adulo equivalente'!B12</f>
+        <v>0.64</v>
+      </c>
+      <c r="C8" s="22">
+        <f>+'Tabla de adulo equivalente'!C12</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="22">
+        <f>+'Tabla de adulo equivalente'!B13</f>
+        <v>0.66</v>
+      </c>
+      <c r="C9" s="22">
+        <f>+'Tabla de adulo equivalente'!C13</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="22">
+        <f>+'Tabla de adulo equivalente'!B14</f>
+        <v>0.68</v>
+      </c>
+      <c r="C10" s="22">
+        <f>+'Tabla de adulo equivalente'!C14</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="22">
+        <f>+'Tabla de adulo equivalente'!B15</f>
+        <v>0.69</v>
+      </c>
+      <c r="C11" s="22">
+        <f>+'Tabla de adulo equivalente'!C15</f>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="22">
+        <f>+'Tabla de adulo equivalente'!B16</f>
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="22">
+        <f>+'Tabla de adulo equivalente'!C16</f>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="22">
+        <f>+'Tabla de adulo equivalente'!B17</f>
+        <v>0.72</v>
+      </c>
+      <c r="C13" s="22">
+        <f>+'Tabla de adulo equivalente'!C17</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="22">
+        <f>+'Tabla de adulo equivalente'!B18</f>
+        <v>0.74</v>
+      </c>
+      <c r="C14" s="22">
+        <f>+'Tabla de adulo equivalente'!C18</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <f>+'Tabla de adulo equivalente'!B19</f>
+        <v>0.76</v>
+      </c>
+      <c r="C15" s="22">
+        <f>+'Tabla de adulo equivalente'!C19</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="22">
+        <f>+'Tabla de adulo equivalente'!B20</f>
+        <v>0.76</v>
+      </c>
+      <c r="C16" s="22">
+        <f>+'Tabla de adulo equivalente'!C20</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
+        <f>+'Tabla de adulo equivalente'!B21</f>
+        <v>0.77</v>
+      </c>
+      <c r="C17" s="22">
+        <f>+'Tabla de adulo equivalente'!C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="22">
+        <f>+'Tabla de adulo equivalente'!B22</f>
+        <v>0.77</v>
+      </c>
+      <c r="C18" s="22">
+        <f>+'Tabla de adulo equivalente'!C22</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="22">
+        <f>+'Tabla de adulo equivalente'!B23</f>
+        <v>0.77</v>
+      </c>
+      <c r="C19" s="22">
+        <f>+'Tabla de adulo equivalente'!C23</f>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C20" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C21" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C22" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C23" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C24" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C25" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C26" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C27" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C28" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C29" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C30" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="23">
+        <f>+'Tabla de adulo equivalente'!B$24</f>
+        <v>0.76</v>
+      </c>
+      <c r="C31" s="23">
+        <f>+'Tabla de adulo equivalente'!C$24</f>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C32" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C33" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C34" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C35" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C36" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C37" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C38" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="20">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C39" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="20">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C40" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C41" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C42" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="20">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C43" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="20">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C44" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="20">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C45" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="20">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C46" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="24">
+        <f>+'Tabla de adulo equivalente'!B$25</f>
+        <v>0.77</v>
+      </c>
+      <c r="C47" s="24">
+        <f>+'Tabla de adulo equivalente'!C$25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="20">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C48" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="20">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C49" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C50" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="20">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C51" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C52" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="20">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C53" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="20">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C54" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="20">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C55" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="20">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C56" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C57" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="20">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C58" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="20">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C59" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="20">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C60" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="20">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C61" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="24">
+        <f>+'Tabla de adulo equivalente'!B$26</f>
+        <v>0.76</v>
+      </c>
+      <c r="C62" s="24">
+        <f>+'Tabla de adulo equivalente'!C$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="20">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C63" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="20">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C64" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="20">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C65" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="20">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C66" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="20">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C67" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="20">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C68" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="20">
+        <f t="shared" ref="A69:A78" si="1">+A68+1</f>
+        <v>67</v>
+      </c>
+      <c r="B69" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C69" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="20">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C70" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="20">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C71" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="20">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C72" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="20">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C73" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="20">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C74" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="20">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C75" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="20">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C76" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="24">
+        <f>+'Tabla de adulo equivalente'!B$27</f>
+        <v>0.67</v>
+      </c>
+      <c r="C77" s="24">
+        <f>+'Tabla de adulo equivalente'!C$27</f>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="20">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="24">
+        <f>+'Tabla de adulo equivalente'!B$28</f>
+        <v>0.63</v>
+      </c>
+      <c r="C78" s="24">
+        <f>+'Tabla de adulo equivalente'!C$28</f>
+        <v>0.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>